--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBADB8CE-9B4B-4540-831C-81E7DB3235E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F012AD-A2FD-48A4-9C67-1E302174064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -46,10 +46,6 @@
     <rPh sb="4" eb="5">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int パケットID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -95,6 +91,10 @@
     <rPh sb="13" eb="15">
       <t>キカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="B2:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -665,7 +665,7 @@
     </row>
     <row r="5" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -675,7 +675,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -719,7 +719,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -739,7 +739,7 @@
     </row>
     <row r="7" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -757,7 +757,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="8" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="10" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F012AD-A2FD-48A4-9C67-1E302174064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA9866-EBC5-4A70-9485-83754020BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="B2:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -613,12 +613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>0</v>
       </c>

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA9866-EBC5-4A70-9485-83754020BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6230E2-10C5-42AF-AB06-D0FBDE501679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="クライアント送信プロトコル" sheetId="1" r:id="rId1"/>
+    <sheet name="サーバー送信プロトコル" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -95,6 +96,40 @@
   </si>
   <si>
     <t>short パケットID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置物データ要求プロトコル</t>
+    <rPh sb="0" eb="3">
+      <t>セッチブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 要求するチャンクX座標</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 要求するチャンクY座標</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="B2:AH14"/>
+  <dimension ref="B2:AH269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -608,83 +643,114 @@
     <col min="35" max="36" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="Q3" s="4"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3">
+    <row r="3" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
         <v>16</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="5">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5">
         <v>32</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="3">
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="3">
         <v>48</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
+    <row r="4" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -701,8 +767,10 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
+    <row r="6" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -710,16 +778,16 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -737,9 +805,9 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="11"/>
     </row>
-    <row r="7" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -755,10 +823,8 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -775,169 +841,848 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="11"/>
     </row>
-    <row r="8" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="11"/>
-    </row>
-    <row r="9" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
+    <row r="8" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="11"/>
-    </row>
-    <row r="11" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="2"/>
-    </row>
-    <row r="12" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH12" s="8"/>
+    </row>
+    <row r="13" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5">
+        <v>32</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="8"/>
+    </row>
+    <row r="14" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="8"/>
+    </row>
+    <row r="15" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="8"/>
+    </row>
+    <row r="16" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+    </row>
+    <row r="17" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+    </row>
+    <row r="18" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+    </row>
+    <row r="19" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+    </row>
+    <row r="20" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+    </row>
+    <row r="21" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+    </row>
+    <row r="22" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+    </row>
+    <row r="23" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+    </row>
+    <row r="24" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+    </row>
+    <row r="25" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+    </row>
+    <row r="26" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BC8B10-301B-46F3-8DC6-E65C96DDC3F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6230E2-10C5-42AF-AB06-D0FBDE501679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E3981-0884-4BD0-A23B-C9D89CB9AFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="クライアント送信プロトコル" sheetId="1" r:id="rId1"/>
-    <sheet name="サーバー送信プロトコル" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -631,24 +631,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="B2:AH269"/>
+  <dimension ref="B2:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AG15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="34" width="2.75" customWidth="1"/>
-    <col min="35" max="36" width="3.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -693,7 +689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -731,7 +727,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -767,7 +763,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
@@ -805,7 +801,7 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="11"/>
     </row>
-    <row r="7" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
@@ -841,7 +837,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="11"/>
     </row>
-    <row r="8" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -875,7 +871,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -911,7 +907,7 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -945,14 +941,13 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="AH12" s="8"/>
     </row>
-    <row r="13" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -995,7 +990,7 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="8"/>
     </row>
-    <row r="14" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1031,7 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="8"/>
     </row>
-    <row r="15" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1068,7 @@
       <c r="AG15" s="9"/>
       <c r="AH15" s="8"/>
     </row>
-    <row r="16" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1108,7 +1103,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1143,7 +1138,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1178,7 +1173,7 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
     </row>
-    <row r="19" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1213,7 +1208,7 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
     </row>
-    <row r="20" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1248,7 +1243,7 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1283,7 +1278,7 @@
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1318,7 +1313,7 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
     </row>
-    <row r="23" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1353,7 +1348,7 @@
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
     </row>
-    <row r="24" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1388,7 +1383,7 @@
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
     </row>
-    <row r="25" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1423,250 +1418,6 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="2:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,13 +1426,438 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BC8B10-301B-46F3-8DC6-E65C96DDC3F7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
+  <dimension ref="B2:AG15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AG15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5">
+        <v>32</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="11"/>
+    </row>
+    <row r="6" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="12" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5">
+        <v>32</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="11"/>
+    </row>
+    <row r="15" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E3981-0884-4BD0-A23B-C9D89CB9AFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36917D57-CF88-4D1D-85FA-6A0B58073A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="クライアント送信プロトコル" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="サーバー送信プロトコル" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -129,6 +129,56 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パディング</t>
+  </si>
+  <si>
+    <t>int 設置物データの数</t>
+    <rPh sb="4" eb="7">
+      <t>セッチブツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guid 設置物のGUID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下繰り返し</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 設置物のX座標</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 設置物のY座標</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -274,13 +324,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +503,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,7 +861,7 @@
   <dimension ref="B2:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AG15"/>
+      <selection activeCell="B7" sqref="B7:AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1427,20 +1654,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="B2:AG15"/>
+  <dimension ref="A2:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AG15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1471,18 +1698,18 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="3">
+      <c r="Z3" s="5">
         <v>48</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1493,17 +1720,17 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -1511,7 +1738,9 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -1520,8 +1749,10 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1529,16 +1760,16 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -1556,47 +1787,47 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="11"/>
-    </row>
-    <row r="7" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
-        <v>5</v>
+    <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="22"/>
+    </row>
+    <row r="7" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1613,7 +1844,9 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="R7" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -1628,25 +1861,27 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
-      <c r="AG7" s="11"/>
-    </row>
-    <row r="8" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="AG7" s="15"/>
+    </row>
+    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -1662,176 +1897,268 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="11"/>
-    </row>
-    <row r="10" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="12" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3">
+      <c r="AG8" s="24"/>
+    </row>
+    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="5">
-        <v>32</v>
-      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+    </row>
+    <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+    </row>
+    <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+    </row>
+    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+    </row>
+    <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="5">
-        <v>48</v>
-      </c>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="11"/>
-    </row>
-    <row r="15" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+    </row>
+    <row r="14" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+    </row>
+    <row r="15" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1840,25 +2167,67 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+    </row>
+    <row r="16" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36917D57-CF88-4D1D-85FA-6A0B58073A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191FF4E-45FF-450F-8A66-2510798781E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -179,6 +179,16 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置物データ応答プロトコル</t>
+    <rPh sb="0" eb="3">
+      <t>セッチブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1664,7 +1674,7 @@
   <sheetData>
     <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191FF4E-45FF-450F-8A66-2510798781E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C66DA32-34DB-4C91-A9B2-8F1331A600C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-24090" yWindow="435" windowWidth="21600" windowHeight="11385" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
-    <sheet name="クライアント送信プロトコル" sheetId="1" r:id="rId1"/>
-    <sheet name="サーバー送信プロトコル" sheetId="3" r:id="rId2"/>
+    <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
+    <sheet name="from server" sheetId="3" r:id="rId2"/>
+    <sheet name="from client" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -99,16 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設置物データ要求プロトコル</t>
-    <rPh sb="0" eb="3">
-      <t>セッチブツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パディング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -183,11 +174,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設置物データ応答プロトコル</t>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鯖宛て</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置物座標データ要求プロトコル</t>
     <rPh sb="0" eb="3">
       <t>セッチブツ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置物座標データ応答プロトコル</t>
+    <rPh sb="0" eb="3">
+      <t>セッチブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>オウトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -197,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +245,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -473,12 +519,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,8 +603,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -867,21 +923,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="B2:AH25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AG8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="C2" s="25" t="str">
+        <f>'from client'!B2</f>
+        <v>機械設置時のプロトコル</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="26" t="str">
+        <f>'from client'!B12</f>
+        <v>設置物座標データ要求プロトコル</v>
+      </c>
+      <c r="D3" s="25" t="str">
+        <f>'from server'!B2</f>
+        <v>設置物座標データ応答プロトコル</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
+    <hyperlink ref="D3" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
+    <hyperlink ref="C2" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
+  <dimension ref="A2:AL16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -912,802 +1038,6 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="3">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="11"/>
-    </row>
-    <row r="5" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="11"/>
-    </row>
-    <row r="6" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="11"/>
-    </row>
-    <row r="7" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="11"/>
-    </row>
-    <row r="8" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="11"/>
-    </row>
-    <row r="10" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="12" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH12" s="8"/>
-    </row>
-    <row r="13" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="5">
-        <v>32</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="8"/>
-    </row>
-    <row r="14" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="8"/>
-    </row>
-    <row r="15" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="8"/>
-    </row>
-    <row r="16" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-    </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-    </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-    </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-    </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-    </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-    </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-    </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="A2:AL16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="5">
-        <v>32</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="4"/>
       <c r="Z3" s="5">
         <v>48</v>
       </c>
@@ -1731,7 +1061,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1749,7 +1079,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -1761,7 +1091,7 @@
     </row>
     <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1779,7 +1109,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -1799,7 +1129,7 @@
     </row>
     <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1817,7 +1147,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
@@ -1855,7 +1185,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -1875,7 +1205,7 @@
     </row>
     <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1928,7 +1258,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -1954,7 +1284,7 @@
     <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -1998,7 +1328,7 @@
     <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2080,7 +1410,7 @@
     <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2240,4 +1570,800 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
+  <dimension ref="B2:AH25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5">
+        <v>32</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="11"/>
+    </row>
+    <row r="6" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="12" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH12" s="8"/>
+    </row>
+    <row r="13" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5">
+        <v>32</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="8"/>
+    </row>
+    <row r="14" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="8"/>
+    </row>
+    <row r="15" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="8"/>
+    </row>
+    <row r="16" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+    </row>
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+    </row>
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+    </row>
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+    </row>
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+    </row>
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+    </row>
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+    </row>
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+    </row>
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+    </row>
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C66DA32-34DB-4C91-A9B2-8F1331A600C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CBF8B-197B-422E-9962-45D5884898B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24090" yWindow="435" windowWidth="21600" windowHeight="11385" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -196,17 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>方向</t>
-    <rPh sb="0" eb="2">
-      <t>ホウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鯖宛て</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設置物座標データ要求プロトコル</t>
     <rPh sb="0" eb="3">
       <t>セッチブツ</t>
@@ -227,6 +216,14 @@
     <rPh sb="8" eb="10">
       <t>オウトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to client</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -924,71 +921,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="25" t="str">
-        <f>'from client'!B2</f>
+      <c r="B3" s="25" t="str">
+        <f>'from client'!$B$2</f>
         <v>機械設置時のプロトコル</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="D3" s="25" t="str">
+        <f>'from server'!$B$2</f>
+        <v>設置物座標データ応答プロトコル</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="26" t="str">
+      <c r="B4" s="26" t="str">
         <f>'from client'!B12</f>
         <v>設置物座標データ要求プロトコル</v>
       </c>
-      <c r="D3" s="25" t="str">
-        <f>'from server'!B2</f>
+      <c r="C4" s="25" t="str">
+        <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
-    <hyperlink ref="D3" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
-    <hyperlink ref="C2" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
+    <hyperlink ref="B4" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
+    <hyperlink ref="C4" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
+    <hyperlink ref="B3" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
+    <hyperlink ref="D3" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -996,15 +1008,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:AL16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1886,7 +1898,7 @@
     </row>
     <row r="12" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH12" s="8"/>
     </row>

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CBF8B-197B-422E-9962-45D5884898B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068ADC5-4E54-49CA-9694-EA1D339D3A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -1009,10 +1009,13 @@
   <dimension ref="A2:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
@@ -1060,6 +1063,9 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="4"/>
+      <c r="AH3">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068ADC5-4E54-49CA-9694-EA1D339D3A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516136B-C2A4-4AE1-9B0E-505C0B091CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-18225" yWindow="1035" windowWidth="17580" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -75,10 +75,6 @@
     <rPh sb="8" eb="10">
       <t>スウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string SteamユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -231,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +252,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -515,6 +519,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,6 +621,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +947,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -936,27 +959,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -968,14 +991,14 @@
         <v>機械設置時のプロトコル</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="25" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1008,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1019,7 +1042,7 @@
   <sheetData>
     <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1069,7 +1092,7 @@
     </row>
     <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1079,7 +1102,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1097,7 +1120,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -1109,7 +1132,7 @@
     </row>
     <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1127,7 +1150,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -1147,7 +1170,7 @@
     </row>
     <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1165,7 +1188,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
@@ -1203,7 +1226,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -1223,7 +1246,7 @@
     </row>
     <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1276,7 +1299,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -1302,7 +1325,7 @@
     <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -1346,7 +1369,7 @@
     <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1428,7 +1451,7 @@
     <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1592,20 +1615,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="B2:AH25"/>
+  <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="28"/>
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1650,9 +1674,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1661,25 +1686,27 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="J4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -1688,8 +1715,11 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="28"/>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1706,15 +1736,15 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
@@ -1724,9 +1754,10 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1742,10 +1773,8 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -1762,153 +1791,154 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="11"/>
     </row>
-    <row r="7" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="28"/>
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="11"/>
-    </row>
-    <row r="8" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="11"/>
-    </row>
-    <row r="10" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="12" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="11"/>
+    </row>
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" s="8"/>
     </row>
-    <row r="13" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1951,9 +1981,9 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="8"/>
     </row>
-    <row r="14" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1963,7 +1993,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1973,7 +2003,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1992,9 +2022,9 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="8"/>
     </row>
-    <row r="15" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2029,7 +2059,7 @@
       <c r="AG15" s="9"/>
       <c r="AH15" s="8"/>
     </row>
-    <row r="16" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516136B-C2A4-4AE1-9B0E-505C0B091CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73997E-3493-4F87-BB43-90DAFBFABDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18225" yWindow="1035" windowWidth="17580" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>to client</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダミー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -944,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -984,32 +988,49 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B4" s="25" t="str">
         <f>'from client'!$B$2</f>
         <v>機械設置時のプロトコル</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="25" t="str">
+      <c r="D4" s="25" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B5" s="26" t="str">
         <f>'from client'!B12</f>
         <v>設置物座標データ要求プロトコル</v>
       </c>
-      <c r="C4" s="25" t="str">
+      <c r="C5" s="25" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
@@ -1017,10 +1038,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B4" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
-    <hyperlink ref="C4" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
-    <hyperlink ref="B3" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
-    <hyperlink ref="D3" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
+    <hyperlink ref="B5" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
+    <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
+    <hyperlink ref="B4" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
+    <hyperlink ref="D4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1617,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73997E-3493-4F87-BB43-90DAFBFABDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E92AB4-23EA-46B4-8C81-84073BD30810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-17490" yWindow="885" windowWidth="17580" windowHeight="11385" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -215,15 +215,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>to server</t>
+    <t>ダミー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>to client</t>
-    <phoneticPr fontId="1"/>
+    <t>from client</t>
   </si>
   <si>
-    <t>ダミー</t>
+    <t>from server</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -948,28 +947,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -979,31 +980,31 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1014,15 +1015,15 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="25" t="str">
+      <c r="E4" s="25" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1041,7 +1042,7 @@
     <hyperlink ref="B5" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
     <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
     <hyperlink ref="B4" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
-    <hyperlink ref="D4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
+    <hyperlink ref="E4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1052,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:AL16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1638,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/industrialization/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Protocol/プロトコル設計.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou\RiderProjects\industrialization\industrialization\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E92AB4-23EA-46B4-8C81-84073BD30810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2850B6B3-C67F-4881-A394-FBDFF27FDD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17490" yWindow="885" windowWidth="17580" windowHeight="11385" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
-    <sheet name="from server" sheetId="3" r:id="rId2"/>
-    <sheet name="from client" sheetId="1" r:id="rId3"/>
+    <sheet name="from client" sheetId="1" r:id="rId2"/>
+    <sheet name="from server" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -223,6 +222,110 @@
   </si>
   <si>
     <t>from server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インベントリ内容要求プロトコル</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guid 要求する機械のGUID</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インベントリ内容応答プロトコル</t>
+    <rPh sb="8" eb="10">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float プロセス進行の度合い</t>
+    <rPh sb="10" eb="12">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インプットスロット1のアイテムID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インプットスロット1のアイテム数</t>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インプットスロット2のアイテムID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インプットスロット2のアイテム数</t>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インプットスロット3のアイテムID</t>
+  </si>
+  <si>
+    <t>int インプットスロット3のアイテム数</t>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下繰り返し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int アウトプットスロット1のアイテムID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int アウトプットスロット1のアイテム数</t>
+    <rPh sb="20" eb="21">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int アウトプットスロット2のアイテムID</t>
+  </si>
+  <si>
+    <t>int アウトプットスロット2のアイテム数</t>
+    <rPh sb="20" eb="21">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int アウトプットスロット3のアイテムID</t>
+  </si>
+  <si>
+    <t>int アウトプットスロット3のアイテム数</t>
+    <rPh sb="20" eb="21">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -544,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +733,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,22 +1056,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="3" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -970,7 +1079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -987,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1004,7 +1113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1023,17 +1132,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>'from client'!B12</f>
+        <f>'from client'!$B$12</f>
         <v>設置物座標データ要求プロトコル</v>
       </c>
       <c r="C5" s="25" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="str">
+        <f>'from client'!$B$17</f>
+        <v>インベントリ内容要求プロトコル</v>
+      </c>
+      <c r="C6" s="25" t="str">
+        <f>'from server'!$B$15</f>
+        <v>インベントリ内容応答プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1043,6 +1165,8 @@
     <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
     <hyperlink ref="B4" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
     <hyperlink ref="E4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
+    <hyperlink ref="B6" location="'from client'!B17" display="インベントリ内容要求プロトコル" xr:uid="{DB03F1C7-1043-4976-9122-25A9DAB66FE5}"/>
+    <hyperlink ref="C6" location="'from server'!B15" display="'from server'!B15" xr:uid="{842CBFA6-B10D-4CD2-86F6-841771E24EB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1050,24 +1174,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="A2:AL16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
+  <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1098,6 +1223,826 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="4"/>
+      <c r="Z3" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="11"/>
+    </row>
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="11"/>
+    </row>
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH12" s="8"/>
+    </row>
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5">
+        <v>32</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="8"/>
+    </row>
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="8"/>
+    </row>
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+    </row>
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+    </row>
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
+        <v>16</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5">
+        <v>32</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="11"/>
+    </row>
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+    </row>
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+    </row>
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+    </row>
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+    </row>
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
+  <dimension ref="A2:AL28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5">
+        <v>32</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="4"/>
       <c r="Z3" s="5">
         <v>48</v>
       </c>
@@ -1112,7 +2057,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +2097,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +2135,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +2173,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="22"/>
     </row>
-    <row r="7" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +2211,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="15"/>
     </row>
-    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1302,7 +2247,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="24"/>
     </row>
-    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -1344,7 +2289,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="19" t="s">
         <v>15</v>
@@ -1388,7 +2333,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="14" t="s">
         <v>12</v>
@@ -1430,7 +2375,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -1470,7 +2415,7 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A13" s="8"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -1512,7 +2457,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1552,9 +2497,11 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1592,567 +2539,92 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="8"/>
+    <row r="16" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5">
+        <v>16</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5">
+        <v>32</v>
+      </c>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="5">
+        <v>48</v>
+      </c>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16">
+        <v>64</v>
+      </c>
       <c r="AI16" s="8"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28"/>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="5">
-        <v>32</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="3">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="6" t="s">
+    <row r="17" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="11"/>
-    </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="11"/>
-    </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="11"/>
-    </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="11"/>
-    </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="2"/>
-    </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-    </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH12" s="8"/>
-    </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="5">
-        <v>32</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="8"/>
-    </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="8"/>
-    </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="8"/>
-    </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-    </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="11"/>
+    </row>
+    <row r="18" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2183,253 +2655,319 @@
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-    </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-    </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-    </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-    </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-    </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-    </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="27"/>
+    </row>
+    <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="27"/>
+    </row>
+    <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="27"/>
+    </row>
+    <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="27"/>
+    </row>
+    <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="27"/>
+    </row>
+    <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="27"/>
+    </row>
+    <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="27"/>
+    </row>
+    <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="27"/>
+    </row>
+    <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="30" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
